--- a/mean_test_weights_balance/output_forest_model_[mean_test_weights_balance_n_forest]_2024-04-13/mean_test_weights_balance_n_forest_hyperparameter_2024-04-13.xlsx
+++ b/mean_test_weights_balance/output_forest_model_[mean_test_weights_balance_n_forest]_2024-04-13/mean_test_weights_balance_n_forest_hyperparameter_2024-04-13.xlsx
@@ -474,10 +474,10 @@
         <v>-1</v>
       </c>
       <c r="J2">
-        <v>0.2381749784869873</v>
+        <v>0.2347578481826413</v>
       </c>
       <c r="K2">
-        <v>0.007283745580787426</v>
+        <v>0.003671462787504736</v>
       </c>
     </row>
   </sheetData>
